--- a/examples/ElementDefine.xlsx
+++ b/examples/ElementDefine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AMIDER\運用マニュアル・ツール\メタデータ\XmlToExcel\ubuntu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AMIDER\運用マニュアル・ツール\メタデータ\ExcelToXml\完成版コード\動作試験\ISO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B4324C-D1D7-4564-BF06-9FE79C8A0BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1A228E-4327-4BCC-A519-AE8907BEC671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B7DDF973-872A-4A5F-8E92-9A0D9179B1A2}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B7DDF973-872A-4A5F-8E92-9A0D9179B1A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="171">
   <si>
     <t>Element Name</t>
     <phoneticPr fontId="1"/>
@@ -132,46 +132,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/gmd:CI_ResponsibleParty/gmd:individualName/gco:CharacterString</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:CI_ResponsibleParty/gmd:organisationName/gco:CharacterString</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/gmd:CI_ResponsibleParty/gmd:role/gmd:CI_RoleCode</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:CI_ResponsibleParty/gmd:role/gco:CI_RoleCode</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>XML作成者</t>
-    <rPh sb="3" eb="6">
-      <t>サクセイシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>XML作成者/名前</t>
-    <rPh sb="3" eb="6">
-      <t>サクセイシャ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>XML作成者/組織名</t>
-    <rPh sb="3" eb="6">
-      <t>サクセイシャ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ソシキメイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -205,190 +166,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/gmd:CI_Citation/gmd:date/gmd:CI_Date/gmd:date/gco:Date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>XML作成者/連絡先</t>
-    <rPh sb="3" eb="6">
-      <t>サクセイシャ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>レンラクサキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/gmd:CI_ResponsibleParty/gmd:positionName/gco:CharacterString</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>XML作成者/職名</t>
-    <rPh sb="3" eb="6">
-      <t>サクセイシャ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ショクメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>XML作成者/連絡先/電話番号</t>
-    <rPh sb="3" eb="6">
-      <t>サクセイシャ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>レンラクサキ</t>
-    </rPh>
-    <rPh sb="11" eb="15">
-      <t>デンワバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:CI_ResponsibleParty/gmd:contactInfo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:CI_Contact/gmd:phone/gmd:CI_Telephone/gmd:voice/gco:CharacterString</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>XML作成者/連絡先/住所</t>
-    <rPh sb="3" eb="6">
-      <t>サクセイシャ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>レンラクサキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジュウショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:CI_Contact/gmd:address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>XML作成者/連絡先/住所/番地</t>
-    <rPh sb="3" eb="6">
-      <t>サクセイシャ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>レンラクサキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バンチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>XML作成者/連絡先/住所/市町村</t>
-    <rPh sb="3" eb="6">
-      <t>サクセイシャ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>レンラクサキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>シチョウソン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>XML作成者/連絡先/住所/都道府県</t>
-    <rPh sb="3" eb="6">
-      <t>サクセイシャ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>レンラクサキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>トドウフケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>XML作成者/連絡先/住所/郵便番号</t>
-    <rPh sb="3" eb="6">
-      <t>サクセイシャ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>レンラクサキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>ユウビンバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>XML作成者/連絡先/住所/国</t>
-    <rPh sb="3" eb="6">
-      <t>サクセイシャ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>レンラクサキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>クニ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>XML作成者/連絡先/住所/メールアドレス</t>
-    <rPh sb="3" eb="6">
-      <t>サクセイシャ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>レンラクサキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジュウショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:CI_Address/gmd:electronicMailAddress/gco:CharacterString</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:CI_Address/gmd:country/gco:CharacterString</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:CI_Address/gmd:postalCode/gco:CharacterString</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:CI_Address/gmd:administrativeArea/gco:CharacterString</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:CI_Address/gmd:city/gco:CharacterString</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:CI_Address/gmd:deliveryPoint/gco:CharacterString</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:CI_Contact/gmd:onlineResource</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -417,49 +195,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/gmd:MD_DataIdentification/gmd:pointOfContact</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:MD_Metadata/gmd:identificationInfo</t>
-  </si>
-  <si>
-    <t>/gmd:MD_DataIdentification/gmd:citation</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:CI_Citation/gmd:edition/gco:CharacterString</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:CI_Citation/gmd:identifier/gmd:MD_Identifier/gmd:code/gco:CharacterString</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:MD_DataIdentification/gmd:abstract/gco:CharacterString</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='discipline']]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='place']]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='project']]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:MD_DataIdentification/gmd:descriptiveKeywords[not(.//gmd:MD_KeywordTypeCode[@codeListValue='discipline' or @codeListValue='place' or @codeListValue='project'])]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:MD_DataIdentification/gmd:resourceConstraints</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>言語</t>
     <rPh sb="0" eb="2">
       <t>ゲンゴ</t>
@@ -471,30 +206,6 @@
     <rPh sb="0" eb="2">
       <t>モジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:MD_DataIdentification/gmd:language/gco:CharacterString</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:MD_DataIdentification/gmd:characterSet/gmd:MD_CharacterSetCode</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:MD_DataIdentification/gmd:topicCategory</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:MD_DataIdentification/gmd:extent</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:EX_Extent/gmd:geographicElement/gmd:EX_GeographicBoundingBox</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:EX_Extent/gmd:temporalElement/gmd:EX_TemporalExtent/gmd:extent/gml:TimePeriod</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -537,10 +248,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/gmd:MD_Metadata/gmd:dataQualityInfo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/gmd:DQ_DataQuality/gmd:scope/gmd:DQ_Scope/gmd:level/gmd:MD_ScopeCode</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -549,475 +256,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/gmd:MD_DataIdentification/gmd:supplementalInformation/gco:CharacterString</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/gmd:MD_Metadata/gmd:contact[.//gmd:CI_RoleCode[@codeListValue='author']]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/概要</t>
-    <rPh sb="6" eb="8">
-      <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/管理者</t>
-    <rPh sb="6" eb="9">
-      <t>カンリシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/管理者/名前</t>
-    <rPh sb="6" eb="9">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/管理者/組織名</t>
-  </si>
-  <si>
-    <t>データ情報/管理者/職名</t>
-    <rPh sb="6" eb="9">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ショクメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/管理者/役割</t>
-  </si>
-  <si>
-    <t>データ情報/管理者/連絡先</t>
-    <rPh sb="6" eb="9">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>レンラクサキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/管理者/連絡先/電話番号</t>
-    <rPh sb="6" eb="9">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>レンラクサキ</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>デンワバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/管理者/連絡先/住所</t>
-    <rPh sb="6" eb="9">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>レンラクサキ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジュウショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/管理者/連絡先/住所/番地</t>
-    <rPh sb="6" eb="9">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>レンラクサキ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>バンチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/管理者/連絡先/住所/市町村</t>
-    <rPh sb="6" eb="9">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>レンラクサキ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>シチョウソン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/管理者/連絡先/住所/都道府県</t>
-    <rPh sb="6" eb="9">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>レンラクサキ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="17" eb="21">
-      <t>トドウフケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/管理者/連絡先/住所/郵便番号</t>
-    <rPh sb="6" eb="9">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>レンラクサキ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="17" eb="21">
-      <t>ユウビンバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/管理者/連絡先/住所/国</t>
-    <rPh sb="6" eb="9">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>レンラクサキ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>クニ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/管理者/連絡先/住所/メールアドレス</t>
-    <rPh sb="6" eb="9">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>レンラクサキ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジュウショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/分野</t>
-    <rPh sb="6" eb="8">
-      <t>ブンヤ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/分野/値</t>
-    <rPh sb="6" eb="8">
-      <t>ブンヤ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/分野/シソーラス</t>
-    <rPh sb="6" eb="8">
-      <t>ブンヤ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/分野/シソーラス/タイトル</t>
-    <rPh sb="6" eb="8">
-      <t>ブンヤ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/分野/シソーラス/日付</t>
-    <rPh sb="6" eb="8">
-      <t>ブンヤ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/場所</t>
-    <rPh sb="6" eb="8">
-      <t>バショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/場所/値</t>
-    <rPh sb="6" eb="8">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/場所/シソーラス</t>
-    <rPh sb="6" eb="8">
-      <t>バショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/場所/シソーラス/タイトル</t>
-    <rPh sb="6" eb="8">
-      <t>バショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/場所/シソーラス/日付</t>
-    <rPh sb="6" eb="8">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/プロジェクト</t>
-  </si>
-  <si>
-    <t>データ情報/プロジェクト/値</t>
-    <rPh sb="13" eb="14">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/プロジェクト/シソーラス</t>
-  </si>
-  <si>
-    <t>データ情報/プロジェクト/シソーラス/タイトル</t>
-  </si>
-  <si>
-    <t>データ情報/プロジェクト/シソーラス/日付</t>
-    <rPh sb="19" eb="21">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/キーワード</t>
-  </si>
-  <si>
-    <t>データ情報/キーワード/値</t>
-    <rPh sb="12" eb="13">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/利用方法</t>
-  </si>
-  <si>
-    <t>データ情報/利用方法/値</t>
-    <rPh sb="11" eb="12">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/言語</t>
-    <rPh sb="6" eb="8">
-      <t>ゲンゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/文字コード</t>
-    <rPh sb="6" eb="8">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/カテゴリー</t>
-  </si>
-  <si>
-    <t>データ情報/カテゴリー/値</t>
-    <rPh sb="12" eb="13">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/取得範囲</t>
-    <rPh sb="6" eb="8">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハンイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/取得範囲/場所</t>
-    <rPh sb="6" eb="8">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/取得範囲/場所/西側境界</t>
-    <rPh sb="6" eb="8">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>ニシガワキョウカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/取得範囲/場所/東側境界</t>
-    <rPh sb="6" eb="8">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>ヒガシガワキョウカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/取得範囲/場所/南側境界</t>
-    <rPh sb="6" eb="8">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>ミナミガワキョウカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/取得範囲/場所/北側境界</t>
-    <rPh sb="6" eb="8">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>キタガワキョウカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/取得範囲/日時</t>
-    <rPh sb="6" eb="8">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/取得範囲/日時/開始日時</t>
-    <rPh sb="6" eb="8">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>カイシニチジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/取得範囲/日時/終了日時</t>
-    <rPh sb="6" eb="8">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>シュウリョウビ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/参考情報</t>
-    <rPh sb="6" eb="10">
-      <t>サンコウジョウホウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1067,148 +306,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>データ情報/管理者/連絡先/オンライン</t>
-    <rPh sb="6" eb="9">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>レンラクサキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/管理者/連絡先/オンライン/URL</t>
-    <rPh sb="6" eb="9">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>レンラクサキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/管理者/連絡先/オンライン/名前</t>
-    <rPh sb="6" eb="9">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>レンラクサキ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/管理者/連絡先/オンライン/説明</t>
-    <rPh sb="6" eb="9">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>レンラクサキ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>XML作成者/連絡先/オンライン</t>
-    <rPh sb="3" eb="6">
-      <t>サクセイシャ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>レンラクサキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>XML作成者/連絡先/オンライン/URL</t>
-    <rPh sb="3" eb="6">
-      <t>サクセイシャ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>レンラクサキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>XML作成者/連絡先/オンライン/名前</t>
-    <rPh sb="3" eb="6">
-      <t>サクセイシャ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>レンラクサキ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>XML作成者/連絡先/オンライン/説明</t>
-    <rPh sb="3" eb="6">
-      <t>サクセイシャ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>レンラクサキ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/引用</t>
-    <rPh sb="6" eb="8">
-      <t>インヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/引用/タイトル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/引用/作成日</t>
-    <rPh sb="9" eb="12">
-      <t>サクセイビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/引用/公開日</t>
-    <rPh sb="9" eb="11">
-      <t>コウカイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/引用/バージョン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/引用/ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:CI_Citation/gmd:date[.//gmd:CI_DateTypeCode[@codeListValue='creation']]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/引用/作成日/日付</t>
-    <rPh sb="9" eb="12">
-      <t>サクセイビ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/gmd:CI_Date/gmd:date/gco:Date</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1217,63 +314,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>データ情報/引用/公開日/日付</t>
-    <rPh sb="9" eb="11">
-      <t>コウカイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:CI_Citation/gmd:date[.//gmd:CI_DateTypeCode[@codeListValue='publication']]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/gmd:MD_Keywords/gmd:type/gmd:MD_KeywordTypeCode</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/引用/作成日/コード</t>
-    <rPh sb="9" eb="12">
-      <t>サクセイビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/引用/公開日/コード</t>
-    <rPh sb="9" eb="12">
-      <t>コウカイビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>XML作成者/コード</t>
-    <rPh sb="3" eb="6">
-      <t>サクセイシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/分野/コード</t>
-    <rPh sb="6" eb="8">
-      <t>ブンヤ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/場所/コード</t>
-    <rPh sb="6" eb="8">
-      <t>バショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ情報/プロジェクト/コード</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1284,6 +325,866 @@
     <rPh sb="5" eb="7">
       <t>ジョウタイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成者</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成者/名前</t>
+    <rPh sb="4" eb="6">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成者/組織名</t>
+    <rPh sb="4" eb="7">
+      <t>ソシキメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成者/職名</t>
+    <rPh sb="4" eb="6">
+      <t>ショクメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:abstract/gco:CharacterString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='discipline']]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='place']]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='project']]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:resourceConstraints</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:language/gco:CharacterString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:characterSet/gmd:MD_CharacterSetCode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:topicCategory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:supplementalInformation/gco:CharacterString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者/名前</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者/組織名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者/職名</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショクメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者/役割</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分野</t>
+    <rPh sb="0" eb="2">
+      <t>ブンヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分野/値</t>
+    <rPh sb="0" eb="2">
+      <t>ブンヤ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分野/コード</t>
+    <rPh sb="0" eb="2">
+      <t>ブンヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分野/シソーラス</t>
+    <rPh sb="0" eb="2">
+      <t>ブンヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分野/シソーラス/タイトル</t>
+    <rPh sb="0" eb="2">
+      <t>ブンヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場所</t>
+    <rPh sb="0" eb="2">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場所/値</t>
+    <rPh sb="0" eb="2">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場所/コード</t>
+    <rPh sb="0" eb="2">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場所/シソーラス</t>
+    <rPh sb="0" eb="2">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場所/シソーラス/タイトル</t>
+    <rPh sb="0" eb="2">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト/値</t>
+    <rPh sb="7" eb="8">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト/コード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト/シソーラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト/シソーラス/タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キーワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キーワード/値</t>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用方法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用方法/値</t>
+    <rPh sb="5" eb="6">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリー/値</t>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考情報</t>
+    <rPh sb="0" eb="4">
+      <t>サンコウジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成者/役割</t>
+    <rPh sb="4" eb="6">
+      <t>ヤクワリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:extent/gmd:EX_Extent/gmd:geographicElement/gmd:EX_GeographicBoundingBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:extent/gmd:EX_Extent/gmd:temporalElement/gmd:EX_TemporalExtent/gmd:extent/gml:TimePeriod</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取得場所</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取得場所/西側境界</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ニシガワキョウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取得場所/東側境界</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ヒガシガワキョウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取得場所/南側境界</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ミナミガワキョウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取得場所/北側境界</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>キタガワキョウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取得日時</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取得日時/開始日時</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>カイシニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取得日時/終了日時</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>シュウリョウビ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:citation/gmd:CI_Citation/gmd:title/gco:CharacterString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:citation/gmd:CI_Citation/gmd:date[.//gmd:CI_DateTypeCode[@codeListValue='publication']]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日/日付</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイビ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日/コード</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公開日</t>
+    <rPh sb="0" eb="2">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公開日/日付</t>
+    <rPh sb="0" eb="2">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公開日/コード</t>
+    <rPh sb="0" eb="3">
+      <t>コウカイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バージョン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:citation/gmd:CI_Citation/gmd:edition/gco:CharacterString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:citation/gmd:CI_Citation/gmd:identifier/gmd:MD_Identifier/gmd:code/gco:CharacterString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:MD_Metadata/gmd:dataQualityInfo[.//gmd:MD_ScopeCode[@codeListValue='dataset']]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:phone/gmd:CI_Telephone/gmd:voice/gco:CharacterString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Address/gmd:deliveryPoint/gco:CharacterString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Address/gmd:city/gco:CharacterString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Address/gmd:administrativeArea/gco:CharacterString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Address/gmd:postalCode/gco:CharacterString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Address/gmd:country/gco:CharacterString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Address/gmd:electronicMailAddress/gco:CharacterString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:onlineResource</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成者/電話番号</t>
+    <rPh sb="4" eb="8">
+      <t>デンワバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成者/住所</t>
+    <rPh sb="4" eb="6">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成者/住所/番地</t>
+    <rPh sb="4" eb="6">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成者/住所/市町村</t>
+    <rPh sb="4" eb="6">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>シチョウソン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成者/住所/都道府県</t>
+    <rPh sb="4" eb="6">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>トドウフケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成者/住所/郵便番号</t>
+    <rPh sb="4" eb="6">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成者/住所/国</t>
+    <rPh sb="4" eb="6">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>クニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成者/住所/メールアドレス</t>
+    <rPh sb="4" eb="6">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成者/オンライン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成者/オンライン/URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成者/オンライン/名前</t>
+    <rPh sb="10" eb="12">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成者/オンライン/説明</t>
+    <rPh sb="10" eb="12">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者/電話番号</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>デンワバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者/住所</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者/住所/番地</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者/住所/市町村</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>シチョウソン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者/住所/都道府県</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>トドウフケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者/住所/郵便番号</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者/住所/国</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>クニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者/住所/メールアドレス</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者/オンライン</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者/オンライン/URL</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者/オンライン/名前</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者/オンライン/説明</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:citation/gmd:CI_Citation/gmd:date[.//gmd:CI_DateTypeCode[@codeListValue='creation']]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:CI_Address/gmd:deliveryPoint/gco:CharacterString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:CI_Address/gmd:city/gco:CharacterString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:CI_Address/gmd:administrativeArea/gco:CharacterString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:CI_Address/gmd:postalCode/gco:CharacterString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:CI_Address/gmd:country/gco:CharacterString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:CI_Address/gmd:electronicMailAddress/gco:CharacterString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分野/シソーラス/改訂日</t>
+    <rPh sb="0" eb="2">
+      <t>ブンヤ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイテイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分野/シソーラス/改訂日/日付</t>
+    <rPh sb="0" eb="2">
+      <t>ブンヤ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイテイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分野/シソーラス/改訂日/コード</t>
+    <rPh sb="0" eb="2">
+      <t>ブンヤ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイテイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場所/シソーラス/改訂日</t>
+    <rPh sb="0" eb="2">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイテイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場所/シソーラス/改訂日/日付</t>
+    <rPh sb="0" eb="2">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイテイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場所/シソーラス/改訂日/コード</t>
+    <rPh sb="0" eb="2">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイテイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト/シソーラス/改訂日</t>
+    <rPh sb="13" eb="15">
+      <t>カイテイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト/シソーラス/改訂日/日付</t>
+    <rPh sb="13" eb="15">
+      <t>カイテイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト/シソーラス/改訂日/コード</t>
+    <rPh sb="13" eb="15">
+      <t>カイテイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:CI_Citation/gmd:date[.//gmd:CI_DateTypeCode[@codeListValue='revision']]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gco:CharacterString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[not(.//gmd:MD_KeywordTypeCode[@codeListValue='discipline' or @codeListValue='place' or @codeListValue='project'])]/gmd:MD_Keywords/gmd:keyword</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1664,10 +1565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950FAB59-A192-41BF-9752-78B64F3B1924}">
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1695,7 +1596,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -1703,7 +1604,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -1719,31 +1620,31 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>19</v>
@@ -1751,7 +1652,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>20</v>
@@ -1759,231 +1660,231 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="s">
-        <v>90</v>
+      <c r="A26" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" s="2" t="s">
-        <v>151</v>
+      <c r="A27" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" s="2" t="s">
-        <v>152</v>
+      <c r="A28" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>159</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>160</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" s="3" t="s">
-        <v>154</v>
+      <c r="A32" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" s="3" t="s">
-        <v>161</v>
+      <c r="A33" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" s="3" t="s">
-        <v>165</v>
+      <c r="A34" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>160</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
-        <v>155</v>
+        <v>66</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>21</v>
@@ -1991,239 +1892,239 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>23</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>40</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>42</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>54</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>53</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>18</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>163</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>32</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>18</v>
@@ -2231,262 +2132,270 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
-        <v>169</v>
+        <v>83</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>163</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>34</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>70</v>
+        <v>170</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>16</v>
+        <v>169</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A85" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
-        <v>142</v>
+        <v>46</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
-        <v>170</v>
+        <v>4</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A102" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A102" s="2"/>
+      <c r="B102" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A103" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/examples/ElementDefine.xlsx
+++ b/examples/ElementDefine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AMIDER\運用マニュアル・ツール\メタデータ\ExcelToXml\完成版コード\動作試験\ISO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AMIDER\データ登録\XmlToExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1A228E-4327-4BCC-A519-AE8907BEC671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAECE6C-1F7D-4EC2-A54D-D249A085236A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B7DDF973-872A-4A5F-8E92-9A0D9179B1A2}"/>
+    <workbookView xWindow="-38520" yWindow="-1935" windowWidth="38640" windowHeight="21120" xr2:uid="{B7DDF973-872A-4A5F-8E92-9A0D9179B1A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="161">
   <si>
     <t>Element Name</t>
     <phoneticPr fontId="1"/>
@@ -65,6 +65,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>データ処理状態/種別</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>データ処理状態/処理状態</t>
     <rPh sb="3" eb="7">
       <t>ショリジョウタイ</t>
@@ -132,7 +145,56 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>/gmd:CI_ResponsibleParty/gmd:individualName/gco:CharacterString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:CI_ResponsibleParty/gmd:organisationName/gco:CharacterString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>/gmd:CI_ResponsibleParty/gmd:role/gmd:CI_RoleCode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:CI_ResponsibleParty/gmd:role/gco:CI_RoleCode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML作成者</t>
+    <rPh sb="3" eb="6">
+      <t>サクセイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML作成者/名前</t>
+    <rPh sb="3" eb="6">
+      <t>サクセイシャ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML作成者/組織名</t>
+    <rPh sb="3" eb="6">
+      <t>サクセイシャ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ソシキメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML作成者/役割</t>
+    <rPh sb="3" eb="6">
+      <t>サクセイシャ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヤクワリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -166,7 +228,190 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>/gmd:CI_Citation/gmd:date/gmd:CI_Date/gmd:date/gco:Date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML作成者/連絡先</t>
+    <rPh sb="3" eb="6">
+      <t>サクセイシャ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>レンラクサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>/gmd:CI_ResponsibleParty/gmd:positionName/gco:CharacterString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML作成者/職名</t>
+    <rPh sb="3" eb="6">
+      <t>サクセイシャ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショクメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML作成者/連絡先/電話番号</t>
+    <rPh sb="3" eb="6">
+      <t>サクセイシャ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>レンラクサキ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>デンワバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:CI_ResponsibleParty/gmd:contactInfo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:CI_Contact/gmd:phone/gmd:CI_Telephone/gmd:voice/gco:CharacterString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML作成者/連絡先/住所</t>
+    <rPh sb="3" eb="6">
+      <t>サクセイシャ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>レンラクサキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:CI_Contact/gmd:address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML作成者/連絡先/住所/番地</t>
+    <rPh sb="3" eb="6">
+      <t>サクセイシャ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>レンラクサキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML作成者/連絡先/住所/市町村</t>
+    <rPh sb="3" eb="6">
+      <t>サクセイシャ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>レンラクサキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>シチョウソン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML作成者/連絡先/住所/都道府県</t>
+    <rPh sb="3" eb="6">
+      <t>サクセイシャ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>レンラクサキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>トドウフケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML作成者/連絡先/住所/郵便番号</t>
+    <rPh sb="3" eb="6">
+      <t>サクセイシャ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>レンラクサキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML作成者/連絡先/住所/国</t>
+    <rPh sb="3" eb="6">
+      <t>サクセイシャ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>レンラクサキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>クニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML作成者/連絡先/住所/メールアドレス</t>
+    <rPh sb="3" eb="6">
+      <t>サクセイシャ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>レンラクサキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:CI_Address/gmd:electronicMailAddress/gco:CharacterString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:CI_Address/gmd:country/gco:CharacterString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:CI_Address/gmd:postalCode/gco:CharacterString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:CI_Address/gmd:administrativeArea/gco:CharacterString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:CI_Address/gmd:city/gco:CharacterString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:CI_Address/gmd:deliveryPoint/gco:CharacterString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:CI_Contact/gmd:onlineResource</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -195,6 +440,57 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>/gmd:MD_DataIdentification/gmd:pointOfContact</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:MD_Metadata/gmd:identificationInfo</t>
+  </si>
+  <si>
+    <t>/gmd:MD_DataIdentification/gmd:citation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:CI_Citation/gmd:edition/gco:CharacterString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:CI_Citation/gmd:identifier/gmd:MD_Identifier/gmd:code/gco:CharacterString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:CI_Citation/gmd:date[.//gmd:CI_DateTypeCode[@codeListValue='creation']]/gmd:CI_Date/gmd:date/gco:Date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:CI_Citation/gmd:date[.//gmd:CI_DateTypeCode[@codeListValue='publication']]/gmd:CI_Date/gmd:date/gco:Date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:MD_DataIdentification/gmd:abstract/gco:CharacterString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='discipline']]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='place']]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='project']]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:MD_DataIdentification/gmd:descriptiveKeywords[not(.//gmd:MD_KeywordTypeCode[@codeListValue='discipline' or @codeListValue='place' or @codeListValue='project'])]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:MD_DataIdentification/gmd:resourceConstraints</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>言語</t>
     <rPh sb="0" eb="2">
       <t>ゲンゴ</t>
@@ -209,6 +505,30 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>/gmd:MD_DataIdentification/gmd:language/gco:CharacterString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:MD_DataIdentification/gmd:characterSet/gmd:MD_CharacterSetCode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:MD_DataIdentification/gmd:topicCategory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:MD_DataIdentification/gmd:extent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:EX_Extent/gmd:geographicElement/gmd:EX_GeographicBoundingBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/gmd:EX_Extent/gmd:temporalElement/gmd:EX_TemporalExtent/gmd:extent/gml:TimePeriod</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>/gmd:MD_Metadata/gmd:distributionInfo</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -248,6 +568,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>/gmd:MD_Metadata/gmd:dataQualityInfo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>/gmd:DQ_DataQuality/gmd:scope/gmd:DQ_Scope/gmd:level/gmd:MD_ScopeCode</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -256,7 +580,475 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>/gmd:MD_DataIdentification/gmd:supplementalInformation/gco:CharacterString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>/gmd:MD_Metadata/gmd:contact[.//gmd:CI_RoleCode[@codeListValue='author']]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/概要</t>
+    <rPh sb="6" eb="8">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/管理者</t>
+    <rPh sb="6" eb="9">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/管理者/名前</t>
+    <rPh sb="6" eb="9">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/管理者/組織名</t>
+  </si>
+  <si>
+    <t>データ情報/管理者/職名</t>
+    <rPh sb="6" eb="9">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショクメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/管理者/役割</t>
+  </si>
+  <si>
+    <t>データ情報/管理者/連絡先</t>
+    <rPh sb="6" eb="9">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>レンラクサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/管理者/連絡先/電話番号</t>
+    <rPh sb="6" eb="9">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>レンラクサキ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>デンワバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/管理者/連絡先/住所</t>
+    <rPh sb="6" eb="9">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>レンラクサキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/管理者/連絡先/住所/番地</t>
+    <rPh sb="6" eb="9">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>レンラクサキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/管理者/連絡先/住所/市町村</t>
+    <rPh sb="6" eb="9">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>レンラクサキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>シチョウソン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/管理者/連絡先/住所/都道府県</t>
+    <rPh sb="6" eb="9">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>レンラクサキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>トドウフケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/管理者/連絡先/住所/郵便番号</t>
+    <rPh sb="6" eb="9">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>レンラクサキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/管理者/連絡先/住所/国</t>
+    <rPh sb="6" eb="9">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>レンラクサキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>クニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/管理者/連絡先/住所/メールアドレス</t>
+    <rPh sb="6" eb="9">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>レンラクサキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/分野</t>
+    <rPh sb="6" eb="8">
+      <t>ブンヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/分野/値</t>
+    <rPh sb="6" eb="8">
+      <t>ブンヤ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/分野/シソーラス</t>
+    <rPh sb="6" eb="8">
+      <t>ブンヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/分野/シソーラス/タイトル</t>
+    <rPh sb="6" eb="8">
+      <t>ブンヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/分野/シソーラス/日付</t>
+    <rPh sb="6" eb="8">
+      <t>ブンヤ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/場所</t>
+    <rPh sb="6" eb="8">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/場所/値</t>
+    <rPh sb="6" eb="8">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/場所/シソーラス</t>
+    <rPh sb="6" eb="8">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/場所/シソーラス/タイトル</t>
+    <rPh sb="6" eb="8">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/場所/シソーラス/日付</t>
+    <rPh sb="6" eb="8">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/プロジェクト</t>
+  </si>
+  <si>
+    <t>データ情報/プロジェクト/値</t>
+    <rPh sb="13" eb="14">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/プロジェクト/シソーラス</t>
+  </si>
+  <si>
+    <t>データ情報/プロジェクト/シソーラス/タイトル</t>
+  </si>
+  <si>
+    <t>データ情報/プロジェクト/シソーラス/日付</t>
+    <rPh sb="19" eb="21">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/キーワード</t>
+  </si>
+  <si>
+    <t>データ情報/キーワード/値</t>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/利用方法</t>
+  </si>
+  <si>
+    <t>データ情報/利用方法/値</t>
+    <rPh sb="11" eb="12">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/言語</t>
+    <rPh sb="6" eb="8">
+      <t>ゲンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/文字コード</t>
+    <rPh sb="6" eb="8">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/カテゴリー</t>
+  </si>
+  <si>
+    <t>データ情報/カテゴリー/値</t>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/取得範囲</t>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/取得範囲/場所</t>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/取得範囲/場所/西側境界</t>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>ニシガワキョウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/取得範囲/場所/東側境界</t>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>ヒガシガワキョウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/取得範囲/場所/南側境界</t>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>ミナミガワキョウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/取得範囲/場所/北側境界</t>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>キタガワキョウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/取得範囲/日時</t>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/取得範囲/日時/開始日時</t>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>カイシニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/取得範囲/日時/終了日時</t>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>シュウリョウビ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/参考情報</t>
+    <rPh sb="6" eb="10">
+      <t>サンコウジョウホウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -306,765 +1098,119 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/gmd:CI_Date/gmd:date/gco:Date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:CI_Date/gmd:dateType/gmd:CI_DateTypeCode</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:MD_Keywords/gmd:type/gmd:MD_KeywordTypeCode</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ処理状態/コード</t>
-    <rPh sb="3" eb="5">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成者</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成者/名前</t>
-    <rPh sb="4" eb="6">
+    <t>データ情報/管理者/連絡先/オンライン</t>
+    <rPh sb="6" eb="9">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>レンラクサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/管理者/連絡先/オンライン/URL</t>
+    <rPh sb="6" eb="9">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>レンラクサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/管理者/連絡先/オンライン/名前</t>
+    <rPh sb="6" eb="9">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>レンラクサキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
       <t>ナマエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>作成者/組織名</t>
-    <rPh sb="4" eb="7">
-      <t>ソシキメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成者/職名</t>
-    <rPh sb="4" eb="6">
-      <t>ショクメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:abstract/gco:CharacterString</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='discipline']]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='place']]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[.//gmd:MD_KeywordTypeCode[@codeListValue='project']]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:resourceConstraints</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:language/gco:CharacterString</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:characterSet/gmd:MD_CharacterSetCode</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:topicCategory</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:supplementalInformation/gco:CharacterString</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>概要</t>
-    <rPh sb="0" eb="2">
-      <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理者</t>
-    <rPh sb="0" eb="3">
+    <t>データ情報/管理者/連絡先/オンライン/説明</t>
+    <rPh sb="6" eb="9">
       <t>カンリシャ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理者/名前</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
+    <rPh sb="10" eb="13">
+      <t>レンラクサキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML作成者/連絡先/オンライン</t>
+    <rPh sb="3" eb="6">
+      <t>サクセイシャ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>レンラクサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML作成者/連絡先/オンライン/URL</t>
+    <rPh sb="3" eb="6">
+      <t>サクセイシャ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>レンラクサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML作成者/連絡先/オンライン/名前</t>
+    <rPh sb="3" eb="6">
+      <t>サクセイシャ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>レンラクサキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
       <t>ナマエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>管理者/組織名</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理者/職名</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショクメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理者/役割</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>分野</t>
-    <rPh sb="0" eb="2">
-      <t>ブンヤ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>分野/値</t>
-    <rPh sb="0" eb="2">
-      <t>ブンヤ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>分野/コード</t>
-    <rPh sb="0" eb="2">
-      <t>ブンヤ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>分野/シソーラス</t>
-    <rPh sb="0" eb="2">
-      <t>ブンヤ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>分野/シソーラス/タイトル</t>
-    <rPh sb="0" eb="2">
-      <t>ブンヤ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>場所</t>
-    <rPh sb="0" eb="2">
-      <t>バショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>場所/値</t>
-    <rPh sb="0" eb="2">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>場所/コード</t>
-    <rPh sb="0" eb="2">
-      <t>バショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>場所/シソーラス</t>
-    <rPh sb="0" eb="2">
-      <t>バショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>場所/シソーラス/タイトル</t>
-    <rPh sb="0" eb="2">
-      <t>バショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロジェクト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロジェクト/値</t>
-    <rPh sb="7" eb="8">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロジェクト/コード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロジェクト/シソーラス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロジェクト/シソーラス/タイトル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キーワード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キーワード/値</t>
-    <rPh sb="6" eb="7">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>利用方法</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>利用方法/値</t>
-    <rPh sb="5" eb="6">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カテゴリー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カテゴリー/値</t>
-    <rPh sb="6" eb="7">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>参考情報</t>
-    <rPh sb="0" eb="4">
-      <t>サンコウジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成者/役割</t>
-    <rPh sb="4" eb="6">
-      <t>ヤクワリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:extent/gmd:EX_Extent/gmd:geographicElement/gmd:EX_GeographicBoundingBox</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:extent/gmd:EX_Extent/gmd:temporalElement/gmd:EX_TemporalExtent/gmd:extent/gml:TimePeriod</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>取得場所</t>
-    <rPh sb="0" eb="2">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>取得場所/西側境界</t>
-    <rPh sb="0" eb="2">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>ニシガワキョウカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>取得場所/東側境界</t>
-    <rPh sb="0" eb="2">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>ヒガシガワキョウカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>取得場所/南側境界</t>
-    <rPh sb="0" eb="2">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>ミナミガワキョウカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>取得場所/北側境界</t>
-    <rPh sb="0" eb="2">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>キタガワキョウカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>取得日時</t>
-    <rPh sb="0" eb="2">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>取得日時/開始日時</t>
-    <rPh sb="0" eb="2">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>カイシニチジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>取得日時/終了日時</t>
-    <rPh sb="0" eb="2">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>シュウリョウビ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:citation/gmd:CI_Citation/gmd:title/gco:CharacterString</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:citation/gmd:CI_Citation/gmd:date[.//gmd:CI_DateTypeCode[@codeListValue='publication']]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイトル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成日</t>
-    <rPh sb="0" eb="3">
+    <t>XML作成者/連絡先/オンライン/説明</t>
+    <rPh sb="3" eb="6">
+      <t>サクセイシャ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>レンラクサキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/引用</t>
+    <rPh sb="6" eb="8">
+      <t>インヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/引用/タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/引用/作成日</t>
+    <rPh sb="9" eb="12">
       <t>サクセイビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>作成日/日付</t>
-    <rPh sb="0" eb="3">
-      <t>サクセイビ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成日/コード</t>
-    <rPh sb="0" eb="3">
-      <t>サクセイビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>公開日</t>
-    <rPh sb="0" eb="2">
+    <t>データ情報/引用/公開日</t>
+    <rPh sb="9" eb="11">
       <t>コウカイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>公開日/日付</t>
-    <rPh sb="0" eb="2">
-      <t>コウカイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>公開日/コード</t>
-    <rPh sb="0" eb="3">
-      <t>コウカイビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バージョン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:citation/gmd:CI_Citation/gmd:edition/gco:CharacterString</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:citation/gmd:CI_Citation/gmd:identifier/gmd:MD_Identifier/gmd:code/gco:CharacterString</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:MD_Metadata/gmd:dataQualityInfo[.//gmd:MD_ScopeCode[@codeListValue='dataset']]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:phone/gmd:CI_Telephone/gmd:voice/gco:CharacterString</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Address/gmd:deliveryPoint/gco:CharacterString</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Address/gmd:city/gco:CharacterString</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Address/gmd:administrativeArea/gco:CharacterString</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Address/gmd:postalCode/gco:CharacterString</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Address/gmd:country/gco:CharacterString</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Address/gmd:electronicMailAddress/gco:CharacterString</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:CI_ResponsibleParty/gmd:contactInfo/gmd:CI_Contact/gmd:onlineResource</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成者/電話番号</t>
-    <rPh sb="4" eb="8">
-      <t>デンワバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成者/住所</t>
-    <rPh sb="4" eb="6">
-      <t>ジュウショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成者/住所/番地</t>
-    <rPh sb="4" eb="6">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>バンチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成者/住所/市町村</t>
-    <rPh sb="4" eb="6">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>シチョウソン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成者/住所/都道府県</t>
-    <rPh sb="4" eb="6">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>トドウフケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成者/住所/郵便番号</t>
-    <rPh sb="4" eb="6">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>ユウビンバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成者/住所/国</t>
-    <rPh sb="4" eb="6">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>クニ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成者/住所/メールアドレス</t>
-    <rPh sb="4" eb="6">
-      <t>ジュウショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成者/オンライン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成者/オンライン/URL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成者/オンライン/名前</t>
-    <rPh sb="10" eb="12">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成者/オンライン/説明</t>
-    <rPh sb="10" eb="12">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理者/電話番号</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="4" eb="8">
-      <t>デンワバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理者/住所</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジュウショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理者/住所/番地</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>バンチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理者/住所/市町村</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>シチョウソン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理者/住所/都道府県</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>トドウフケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理者/住所/郵便番号</t>
-    <rPh sb="0" eb="2">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジュウショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理者/住所/国</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>クニ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理者/住所/メールアドレス</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジュウショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理者/オンライン</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理者/オンライン/URL</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理者/オンライン/名前</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理者/オンライン/説明</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:citation/gmd:CI_Citation/gmd:date[.//gmd:CI_DateTypeCode[@codeListValue='creation']]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:pointOfContact</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:CI_Address/gmd:deliveryPoint/gco:CharacterString</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:CI_Address/gmd:city/gco:CharacterString</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:CI_Address/gmd:administrativeArea/gco:CharacterString</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:CI_Address/gmd:postalCode/gco:CharacterString</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:CI_Address/gmd:country/gco:CharacterString</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:CI_Address/gmd:electronicMailAddress/gco:CharacterString</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>分野/シソーラス/改訂日</t>
-    <rPh sb="0" eb="2">
-      <t>ブンヤ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カイテイ</t>
     </rPh>
     <rPh sb="11" eb="12">
       <t>ビ</t>
@@ -1072,119 +1218,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>分野/シソーラス/改訂日/日付</t>
-    <rPh sb="0" eb="2">
-      <t>ブンヤ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カイテイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>分野/シソーラス/改訂日/コード</t>
-    <rPh sb="0" eb="2">
-      <t>ブンヤ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カイテイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>場所/シソーラス/改訂日</t>
-    <rPh sb="0" eb="2">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カイテイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>場所/シソーラス/改訂日/日付</t>
-    <rPh sb="0" eb="2">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カイテイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>場所/シソーラス/改訂日/コード</t>
-    <rPh sb="0" eb="2">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カイテイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロジェクト/シソーラス/改訂日</t>
-    <rPh sb="13" eb="15">
-      <t>カイテイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロジェクト/シソーラス/改訂日/日付</t>
-    <rPh sb="13" eb="15">
-      <t>カイテイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロジェクト/シソーラス/改訂日/コード</t>
-    <rPh sb="13" eb="15">
-      <t>カイテイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:CI_Citation/gmd:date[.//gmd:CI_DateTypeCode[@codeListValue='revision']]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gco:CharacterString</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/gmd:MD_Metadata/gmd:identificationInfo/gmd:MD_DataIdentification/gmd:descriptiveKeywords[not(.//gmd:MD_KeywordTypeCode[@codeListValue='discipline' or @codeListValue='place' or @codeListValue='project'])]/gmd:MD_Keywords/gmd:keyword</t>
+    <t>データ情報/引用/バージョン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ情報/引用/ID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1565,16 +1603,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950FAB59-A192-41BF-9752-78B64F3B1924}">
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="39.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="170.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="210.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1591,23 +1629,23 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -1615,343 +1653,343 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>119</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>121</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>132</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" s="3" t="s">
-        <v>107</v>
+      <c r="A26" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" s="3" t="s">
-        <v>108</v>
+      <c r="A27" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" s="3" t="s">
-        <v>109</v>
+      <c r="A28" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A31" s="3" t="s">
-        <v>112</v>
+      <c r="A31" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>119</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>153</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>154</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>155</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>156</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>157</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>158</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
@@ -1959,7 +1997,7 @@
         <v>147</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>126</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
@@ -1967,7 +2005,7 @@
         <v>148</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
@@ -1975,7 +2013,7 @@
         <v>149</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
@@ -1983,419 +2021,355 @@
         <v>150</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>168</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>168</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>168</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A95" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A96" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A97" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A98" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A99" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A100" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A101" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A102" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A103" s="2"/>
+      <c r="A95" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
